--- a/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/79/parameters.xlsx
+++ b/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/79/parameters.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4704704704704705</v>
+        <v>0.7363736373637364</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>748.7487487487488</v>
+        <v>1821.382138213821</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.001701701701701702</v>
+        <v>0.05264526452645265</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.4734734734734735</v>
+        <v>0.4816481648164816</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>278.2782782782783</v>
+        <v>1099.8799879988</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>149.1491491491492</v>
+        <v>397.9297929792979</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>852.8528528528529</v>
+        <v>948.6462646264625</v>
       </c>
     </row>
   </sheetData>
